--- a/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-17,13%</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-29,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-12,85%</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
         </is>
       </c>
     </row>
@@ -642,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 2,56</t>
+          <t>-11,52; 4,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,51</t>
+          <t>0,0; 15,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,55</t>
+          <t>0,0; 12,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,59; 8,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -666,6 +692,16 @@
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-5,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>50,35%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>210,74%</t>
         </is>
       </c>
     </row>
@@ -722,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 0,0</t>
+          <t>-15,48; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,76</t>
+          <t>-8,9; 7,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,82</t>
+          <t>-16,62; -1,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,48; 12,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -746,6 +792,16 @@
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -764,22 +820,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>249,5%</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -789,7 +845,17 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>864,21%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -802,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 7,4</t>
+          <t>1,96; 11,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 10,1</t>
+          <t>0,95; 8,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,95</t>
+          <t>2,91; 13,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-49,51; —</t>
+          <t>1,11; 11,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -826,6 +892,16 @@
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>5,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>213,33%</t>
+          <t>9,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,57%</t>
+          <t>270,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>132,42%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>81,81%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>202,01%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 8,68</t>
+          <t>0,24; 13,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 8,7</t>
+          <t>-2,03; 12,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,06</t>
+          <t>-3,04; 11,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 1223,65</t>
+          <t>1,55; 18,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 384,02</t>
+          <t>-29,5; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,03; 247,14</t>
+          <t>-43,52; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-50,53; 819,13</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 1144,1</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>288,54%</t>
+          <t>-23,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>164,99%</t>
+          <t>207,7%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>112,35%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>115,25%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 8,48</t>
+          <t>-9,2; 6,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 12,86</t>
+          <t>-1,42; 15,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 13,8</t>
+          <t>-2,74; 16,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-64,68; 449,31</t>
+          <t>-2,29; 17,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,65; —</t>
+          <t>-100,0; 285,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 738,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-51,15; 663,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-41,38; 814,47</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-0,82</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>382,82%</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>507,26%</t>
+          <t>-14,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>110,65%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>259,09%</t>
         </is>
       </c>
     </row>
@@ -1042,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,15</t>
+          <t>-12,29; 4,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 6,25</t>
+          <t>-10,8; 6,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 19,06</t>
+          <t>-6,33; 13,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 20,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1066,6 +1192,16 @@
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>108,79%</t>
+          <t>5,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>145,06%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>129,09%</t>
+          <t>123,26%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>90,21%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>178,04%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,65</t>
+          <t>-1,73; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,33</t>
+          <t>0,15; 5,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,11; 6,4</t>
+          <t>0,03; 5,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,28; 326,95</t>
+          <t>2,27; 9,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,41; 377,48</t>
+          <t>-41,24; 194,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,73; 317,1</t>
+          <t>-0,96; 461,86</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,44; 282,31</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 513,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_11_R2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,171 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>4,42</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,37</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-29,71%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>18,36%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.765298113873334</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.148961826016209</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.264711287675167</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.500885024805947</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2697059243467358</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4505616899268651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 4,44</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 15,68</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 12,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-11,59; 8,93</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.792734067424348</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-8.877565783868711</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.377525730587354</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>16.98641148015288</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.67646843350815</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.571038826740546</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,73</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,5</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,24%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>210,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,48; 0,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 7,08</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,62; -1,11</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,48; 12,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-7.181173836694368</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.100087793818809</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-5.858015399687583</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.62146981938798</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3661362561592496</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.259137746506236</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,92</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,91</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-33.86291767501571</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.10925733449867</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-20.15404611214715</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.1153981871075</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,96; 11,04</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 8,95</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>2,91; 13,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 11,51</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.464635613785316</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.256006206622738</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.815760760000309</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,44 +799,36 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,11</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,1</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>9,76</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>270,28%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>132,42%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>81,81%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>202,01%</t>
+      <c r="C10" s="5" t="n">
+        <v>5.045840180287795</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>4.213073539306814</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>7.293502058931832</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.237791524858619</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
         </is>
       </c>
     </row>
@@ -963,254 +836,150 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 13,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 12,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,04; 11,79</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 18,25</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-29,5; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-43,52; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-50,53; 819,13</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 1144,1</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.815313986700855</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.278760881608196</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>2.973711011836197</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.346635103281753</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>12.09315615695364</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>10.7434154012306</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>14.21290343745711</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>13.1979297765692</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,16</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-23,49%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>207,7%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>112,35%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>115,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,2; 6,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,42; 15,58</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 16,93</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 17,83</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 285,59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-51,15; 663,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-41,38; 814,47</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.141779794396639</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.032094046765095</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>3.819110697801769</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>9.297389261249847</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>2.77108149507748</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.33250283606497</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.8242326947312505</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>2.021206819689315</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>3,46</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,41</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-25,89%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-14,64%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>110,65%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>259,09%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.4536085792645271</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.976637811215149</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.796681128660807</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>1.474645617051264</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.2798064631575712</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4471371526347649</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4992600039998335</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.01077900721996459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 4,74</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-10,8; 6,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 13,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,37; 20,31</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>12.92679021941845</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.46790243734642</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.11156880608033</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>17.53194531149771</v>
+      </c>
+      <c r="G15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>8.301448883393178</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>11.5407609329272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +987,277 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>2,93</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,9</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>5,35</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>34,69%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>123,26%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>90,21%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>178,04%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.323808260706071</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>5.101846260423089</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>6.19903189512105</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>7.521603909276722</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.1912041032649339</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>2.218751808709911</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>1.13922697850087</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>1.358412826988391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-1,73; 3,73</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>0,15; 5,8</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 5,65</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 9,27</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-41,24; 194,07</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-0,96; 461,86</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 282,31</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 513,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-8.730463702463195</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-1.259500793431654</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-2.670653979025451</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-1.457775773520741</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="6" t="inlineStr"/>
+      <c r="I17" s="6" t="n">
+        <v>-0.5442426914980889</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.3498701047899904</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.095368156167194</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>15.16329225699532</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>17.28192061383082</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>19.28569709805705</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>3.238710782556036</v>
+      </c>
+      <c r="H18" s="6" t="inlineStr"/>
+      <c r="I18" s="6" t="n">
+        <v>7.003673862465712</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>9.687811593485147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-0.2497777837671529</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.1326508574761395</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>2.690924552624284</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>6.721679455888117</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.09953636826816298</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.03954314244681454</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.8580299501905461</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>2.657773994797417</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-8.416342381799698</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-6.704191045285893</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-7.497130854672231</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-2.422827861766111</v>
+      </c>
+      <c r="G20" s="6" t="inlineStr"/>
+      <c r="H20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="inlineStr"/>
+      <c r="J20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>4.663053520541739</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>12.98752377369993</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>11.76349854042615</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>22.00635198876688</v>
+      </c>
+      <c r="G21" s="6" t="inlineStr"/>
+      <c r="H21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="inlineStr"/>
+      <c r="J21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.6154106438581095</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>2.948194294223876</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.682520311221812</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>5.511107358868557</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.1666608330864528</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>1.135640041217033</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.8256489756101503</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>1.872766399693199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-3.330319935351458</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.2054684668735285</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.2346723952953529</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>2.421372814614271</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.6158723315983389</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.1210585767253151</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.1110213159741961</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>0.444343534417841</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.365599422790231</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.143640223721005</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.487438761845127</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>9.290128030871724</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1.566874944655485</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>4.271633233051453</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>2.668924511068413</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>5.428071818736146</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1265,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
